--- a/public/TDK pontozolap-Irasbeli - kitoltott.xlsx
+++ b/public/TDK pontozolap-Irasbeli - kitoltott.xlsx
@@ -692,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
